--- a/DevOps/Server Setup/IIS/IIS Web App Setup Definitions For TSV Export.xlsx
+++ b/DevOps/Server Setup/IIS/IIS Web App Setup Definitions For TSV Export.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\irmaqafile\e$\IRMA\Staging\docs\Projects\IIS Web App Setup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tlux\dev\git\Icon\DevOps\Server Setup\IIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Test App Pools" sheetId="3" r:id="rId3"/>
     <sheet name="Web Apps" sheetId="2" r:id="rId4"/>
     <sheet name="Legacy Apps" sheetId="4" r:id="rId5"/>
+    <sheet name="Virtual Directories" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="66">
   <si>
     <t>IISAppPoolName</t>
   </si>
@@ -178,9 +179,6 @@
   </si>
   <si>
     <t>SPOReportsDev</t>
-  </si>
-  <si>
-    <t>SPOReport</t>
   </si>
   <si>
     <t>WFM\SPOReportsDev</t>
@@ -221,6 +219,15 @@
   </si>
   <si>
     <t>enable32BitAppOnWin64=True</t>
+  </si>
+  <si>
+    <t>vName</t>
+  </si>
+  <si>
+    <t>sporefiles</t>
+  </si>
+  <si>
+    <t>E:\WebTools\PO\</t>
   </si>
 </sst>
 </file>
@@ -710,7 +717,7 @@
         <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -766,16 +773,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
@@ -783,7 +790,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -817,7 +824,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -834,7 +841,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -863,7 +870,7 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -967,7 +974,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1015,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1050,13 +1057,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>32</v>
@@ -1078,30 +1085,30 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1120,16 +1127,16 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1255,4 +1262,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DevOps/Server Setup/IIS/IIS Web App Setup Definitions For TSV Export.xlsx
+++ b/DevOps/Server Setup/IIS/IIS Web App Setup Definitions For TSV Export.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tlux\dev\git\Icon\DevOps\Server Setup\IIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tlux\dev\git\scad\DevOps\Server Setup\IIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="6765" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="6765" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IGNORE" sheetId="1" r:id="rId1"/>
     <sheet name="Dev App Pools" sheetId="5" r:id="rId2"/>
-    <sheet name="Test App Pools" sheetId="3" r:id="rId3"/>
-    <sheet name="Web Apps" sheetId="2" r:id="rId4"/>
-    <sheet name="Legacy Apps" sheetId="4" r:id="rId5"/>
-    <sheet name="Virtual Directories" sheetId="7" r:id="rId6"/>
+    <sheet name="Web Apps" sheetId="2" r:id="rId3"/>
+    <sheet name="Legacy Apps" sheetId="4" r:id="rId4"/>
+    <sheet name="Virtual Directories" sheetId="7" r:id="rId5"/>
+    <sheet name="Test App Pools" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="81">
   <si>
     <t>IISAppPoolName</t>
   </si>
@@ -228,6 +228,51 @@
   </si>
   <si>
     <t>E:\WebTools\PO\</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>IRMAWebMWDev</t>
+  </si>
+  <si>
+    <t>IRMAWebSODev</t>
+  </si>
+  <si>
+    <t>IRMAWebRMDev</t>
+  </si>
+  <si>
+    <t>IRMAWebUKDev</t>
+  </si>
+  <si>
+    <t>IRMAWebXXDev</t>
+  </si>
+  <si>
+    <t>E:\Regions\FL\</t>
+  </si>
+  <si>
+    <t>E:\Regions\MW\</t>
+  </si>
+  <si>
+    <t>E:\Regions\SO\</t>
+  </si>
+  <si>
+    <t>E:\Regions\UK\</t>
+  </si>
+  <si>
+    <t>fz4VVLE9</t>
+  </si>
+  <si>
+    <t>WFM\IconWebTest</t>
   </si>
 </sst>
 </file>
@@ -689,10 +734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E15" sqref="A2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,7 +852,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -824,7 +869,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -841,7 +886,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -853,12 +898,12 @@
         <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -870,7 +915,92 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -881,99 +1011,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="4" width="24.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1071,72 +1111,142 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1145,12 +1255,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,10 +1332,10 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -1236,10 +1346,10 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
         <v>40</v>
@@ -1250,12 +1360,180 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1264,7 +1542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1304,4 +1582,102 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="4" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>